--- a/data/output_data5a.xlsx
+++ b/data/output_data5a.xlsx
@@ -55,16 +55,16 @@
     <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.26783446216092305</t>
   </si>
   <si>
-    <t>(TRANSFER Brobdingnag self ((Electronics 1)) EU: 0.495</t>
-  </si>
-  <si>
-    <t>(TRANSFER Brobdingnag self ((Housing 1)) EU: 0.029700000000000247</t>
-  </si>
-  <si>
-    <t>(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t>(TRANSFER self Foremz ((MetallicElements 1)) EU: 0.0</t>
+    <t>(TRANSFER Brobdingnag self (Electronics 1)) EU: 0.495</t>
+  </si>
+  <si>
+    <t>(TRANSFER Brobdingnag self (Housing 1)) EU: 0.029700000000000247</t>
+  </si>
+  <si>
+    <t>(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
+  </si>
+  <si>
+    <t>(TRANSFER self Foremz (MetallicElements 1)) EU: 0.0</t>
   </si>
 </sst>
 </file>

--- a/data/output_data5a.xlsx
+++ b/data/output_data5a.xlsx
@@ -40,31 +40,31 @@
     <t>Expected Utility: 0.26783446216092305</t>
   </si>
   <si>
-    <t>Expected Utility: 0.026159580195337977</t>
-  </si>
-  <si>
-    <t>Expected Utility: 0.0006605799804288194</t>
-  </si>
-  <si>
-    <t>Expected Utility: -0.005257053372984933</t>
-  </si>
-  <si>
-    <t>Expected Utility: -0.0075</t>
+    <t>Expected Utility: -0.08441771908267161</t>
+  </si>
+  <si>
+    <t>Expected Utility: -0.2475</t>
+  </si>
+  <si>
+    <t>Expected Utility: -0.26285266864924667</t>
+  </si>
+  <si>
+    <t>Expected Utility: -0.35776047315785614</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.26783446216092305</t>
   </si>
   <si>
-    <t>(TRANSFER Brobdingnag self (Electronics 1)) EU: 0.495</t>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.08441771908267161</t>
+  </si>
+  <si>
+    <t>(TRANSFORM self (INPUTS (Population 1) (Timber 3) (Housing 1))  (OUTPUTS (Population 1) (Food 2) (Housing 1) (FoodWaste 1))) EU: -0.2475</t>
+  </si>
+  <si>
+    <t>(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
   </si>
   <si>
     <t>(TRANSFER Brobdingnag self (Housing 1)) EU: 0.029700000000000247</t>
-  </si>
-  <si>
-    <t>(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t>(TRANSFER self Foremz (MetallicElements 1)) EU: 0.0</t>
   </si>
 </sst>
 </file>
